--- a/dados_setor_eletrico/16020200 - UHE BALBINA PITINGA.xlsx
+++ b/dados_setor_eletrico/16020200 - UHE BALBINA PITINGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98074877-0547-4BB4-94C4-D0477F1FA285}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6999B7A3-F204-429E-B589-F3CA41FC986D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +136,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{98E9FD56-117F-4003-A096-307CDE710B94}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -414,12 +416,16 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45200.999432870369</v>
       </c>
@@ -459,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45200.957766203705</v>
       </c>
@@ -479,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45200.91609953704</v>
       </c>
@@ -499,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45200.874432870369</v>
       </c>
@@ -519,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45200.832766203705</v>
       </c>
@@ -539,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45200.79109953704</v>
       </c>
@@ -559,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45200.749432870369</v>
       </c>
@@ -579,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45200.707766203705</v>
       </c>
@@ -599,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45200.66609953704</v>
       </c>
@@ -619,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45200.624432870369</v>
       </c>
@@ -639,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>45200.582766203705</v>
       </c>
@@ -659,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45200.54109953704</v>
       </c>
@@ -679,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>45200.499432870369</v>
       </c>
@@ -699,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>45200.457766203705</v>
       </c>
@@ -719,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>45200.41609953704</v>
       </c>
@@ -739,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45200.374432870369</v>
       </c>
@@ -759,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>45200.332766203705</v>
       </c>
@@ -779,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45200.29109953704</v>
       </c>
@@ -799,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45200.249432870369</v>
       </c>
@@ -819,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45200.207766203705</v>
       </c>
@@ -839,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45200.16609953704</v>
       </c>
@@ -859,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>45200.124432870369</v>
       </c>
@@ -879,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45200.082766203705</v>
       </c>
@@ -899,7 +905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45200.04109953704</v>
       </c>
